--- a/Proyectos/2015/11/P1334 - DA, CCON, Rocio Montes_OC/Planeación/Plan_de_proyecto.xlsx
+++ b/Proyectos/2015/11/P1334 - DA, CCON, Rocio Montes_OC/Planeación/Plan_de_proyecto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="159">
   <si>
     <t>Plan del Proyecto</t>
   </si>
@@ -657,9 +657,6 @@
     <t>Es necesario contar con los recursos actualizados lo antes posible</t>
   </si>
   <si>
-    <t xml:space="preserve">Falla de servicio electrico </t>
-  </si>
-  <si>
     <t>Home work</t>
   </si>
   <si>
@@ -667,9 +664,6 @@
   </si>
   <si>
     <t>Cerrado</t>
-  </si>
-  <si>
-    <t>Falla de servicio de internet</t>
   </si>
   <si>
     <t>Tener contrato con varias compañias de internet</t>
@@ -703,6 +697,18 @@
   </si>
   <si>
     <t>quincenalmente</t>
+  </si>
+  <si>
+    <t>Falla de servicio eléctrico, evita la buena conexión con el cliente</t>
+  </si>
+  <si>
+    <t>Falla de servicio de internet, interrumpe la conexión para realizar los servicios y atraza las tareas agendadas</t>
+  </si>
+  <si>
+    <t>Ricardo González Novela</t>
+  </si>
+  <si>
+    <t>1 vez por evento</t>
   </si>
 </sst>
 </file>
@@ -2573,7 +2579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMH9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:C9"/>
     </sheetView>
   </sheetViews>
@@ -2701,7 +2707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -24916,36 +24922,36 @@
     </row>
     <row r="5" spans="1:1023" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>114</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:1023" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:1023" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -25250,8 +25256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" topLeftCell="F2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26428,7 +26434,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C5" s="58">
         <v>5</v>
@@ -26444,19 +26450,19 @@
         <v>3</v>
       </c>
       <c r="G5" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="I5" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="I5" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5" s="62" t="s">
-        <v>144</v>
-      </c>
       <c r="K5" s="63" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -27472,12 +27478,12 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <v>2</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C6" s="58">
         <v>5</v>
@@ -27493,19 +27499,19 @@
         <v>3</v>
       </c>
       <c r="G6" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="H6" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="62" t="s">
-        <v>148</v>
-      </c>
       <c r="K6" s="63" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
